--- a/gmm/sickles/COORD.xlsx
+++ b/gmm/sickles/COORD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\_coll\SICKLES_SHAPES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\Rdev\gmm\sickles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8507B7-CBB8-45AD-AA38-D5B44BB0B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE57F07-FA93-4C1C-A6EF-8F33D12B126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B839285C-FDF2-4BBA-8858-89DB8CF878F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B839285C-FDF2-4BBA-8858-89DB8CF878F1}"/>
   </bookViews>
   <sheets>
     <sheet name="DIAG" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,10 +1050,10 @@
         <v>36</v>
       </c>
       <c r="C19" s="2">
-        <v>38.683687999999997</v>
+        <v>-0.40183798650707597</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.40165099999999998</v>
+        <v>38.683628687513099</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -2021,21 +2021,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8FC160713BDF448A8EFA3686D066431" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fcaafc526a87ff586fd8fd2b7fe8724">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f10ebf67-d881-4c10-993f-053476388617" xmlns:ns4="fb0431e7-7c2e-49a0-8ebe-6a3390542c49" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7883317671267a9f3bf613c863be91de" ns3:_="" ns4:_="">
     <xsd:import namespace="f10ebf67-d881-4c10-993f-053476388617"/>
@@ -2264,24 +2249,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F5FCB4-E177-4311-9D34-5C16E5725E5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78559CEF-D316-45AD-85E4-AC655E3F510F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8DDDB7-20A4-4A6F-80E0-43A1D82B00B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2298,4 +2281,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78559CEF-D316-45AD-85E4-AC655E3F510F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96F5FCB4-E177-4311-9D34-5C16E5725E5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>